--- a/medicine/Psychotrope/Dolcetto_d'Acqui/Dolcetto_d'Acqui.xlsx
+++ b/medicine/Psychotrope/Dolcetto_d'Acqui/Dolcetto_d'Acqui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Acqui</t>
+          <t>Dolcetto_d'Acqui</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dolcetto d'Acqui est un vin rouge italien de la région du Piémont doté d'une appellation DOC depuis le 1er septembre 1972. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Acqui</t>
+          <t>Dolcetto_d'Acqui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Alexandrie, dans les communes d'Alice Bel Colle, Bistagno, Cartosio, Cassine, Castelletto d'Erro, Castelnuovo Bormida, Cavatore, Denice, Grognardo, Melazzo, Montechiaro d'Acqui, Morbello, Orsara Bormida, Ponti, Ponzone, Ricaldone, Rivalta Bormida, Sezzadio, Spigno Monferrato, Strevi, Terzo et Visone.
 Les vignobles se situent sur des pentes des nombreuses collines autour de Acqui Terme. La superficie plantée en vignes est de 447 hectares.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Acqui</t>
+          <t>Dolcetto_d'Acqui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur : rouge rubis avec tendance au rouge brique avec le vieillissement.
 Odeur : vineux, agréablement caractéristique
